--- a/app/erp/module/gl_report_general_ledger/excel/gl_report_general_ledger_template_v01.xlsx
+++ b/app/erp/module/gl_report_general_ledger/excel/gl_report_general_ledger_template_v01.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\yeelim_erp_uat\app\erp\module\gl_report_general_ledger\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="9525"/>
   </bookViews>
@@ -657,11 +662,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -717,6 +722,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -764,7 +772,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -799,7 +807,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1046,37 +1054,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="12"/>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="12"/>
-      <c r="H3" s="14"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="12"/>
       <c r="G4" s="8"/>
       <c r="H4" s="7"/>
@@ -1124,6 +1132,9 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.25" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>